--- a/DB관련/데이터베이스 명세서 (1).xlsx
+++ b/DB관련/데이터베이스 명세서 (1).xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Desktop\팀프로젝트\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C84B4A-75A9-4A05-8CCE-280DA7ADCE3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4D9CBF59-9659-45C3-9646-83CC02DB01C2}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="94">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -397,13 +391,21 @@
   </si>
   <si>
     <t>board_has_product</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -896,28 +898,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
@@ -1235,32 +1237,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D7FF7B-7228-4D9C-AE64-FE6E0D2C1BF9}">
-  <dimension ref="B1:I40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="28" t="s">
+    <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -1285,8 +1287,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="32" t="s">
         <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1305,8 +1307,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="26"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="32"/>
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1321,8 +1323,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="26"/>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="32"/>
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1339,8 +1341,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="26"/>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="32"/>
       <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1359,8 +1361,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="26"/>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="32"/>
       <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1379,8 +1381,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="26"/>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="32"/>
       <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
@@ -1399,8 +1401,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="27"/>
+    <row r="9" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="33"/>
       <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
@@ -1415,8 +1417,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="29" t="s">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="31" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -1437,8 +1439,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="26"/>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="32"/>
       <c r="C11" s="11" t="s">
         <v>29</v>
       </c>
@@ -1453,8 +1455,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="26"/>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="32"/>
       <c r="C12" s="11" t="s">
         <v>30</v>
       </c>
@@ -1469,8 +1471,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="26"/>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="32"/>
       <c r="C13" s="11" t="s">
         <v>31</v>
       </c>
@@ -1489,10 +1491,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="26"/>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="32"/>
       <c r="C14" s="11" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>18</v>
@@ -1502,89 +1504,89 @@
         <v>20</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="14"/>
+      <c r="I14" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="32"/>
+      <c r="C15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I15" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="26"/>
-      <c r="C15" s="11" t="s">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="32"/>
+      <c r="C16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D16" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E16" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="26"/>
-      <c r="C16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="14"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="26"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="32"/>
       <c r="C17" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="32"/>
+      <c r="C18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="14" t="s">
+      <c r="G18" s="5"/>
+      <c r="H18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I18" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="26"/>
-      <c r="C18" s="11" t="s">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="32"/>
+      <c r="C19" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="26"/>
-      <c r="C19" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>19</v>
@@ -1596,79 +1598,77 @@
         <v>0</v>
       </c>
       <c r="I19" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="32"/>
+      <c r="C20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="27"/>
-      <c r="C20" s="12" t="s">
+    <row r="21" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="33"/>
+      <c r="C21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8">
         <v>0</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I21" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="26" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E22" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="14" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="17" t="s">
+      <c r="H22" s="5"/>
+      <c r="I22" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="26"/>
-      <c r="C22" s="11" t="s">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="32"/>
+      <c r="C23" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D23" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="26"/>
-      <c r="C23" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>19</v>
-      </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="5"/>
@@ -1676,16 +1676,16 @@
         <v>3</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="26"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="32"/>
       <c r="C24" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="14" t="s">
@@ -1696,314 +1696,334 @@
         <v>3</v>
       </c>
       <c r="I24" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="32"/>
+      <c r="C25" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="27"/>
-      <c r="C25" s="19" t="s">
+    <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="33"/>
+      <c r="C26" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D26" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="20" t="s">
+      <c r="E26" s="21"/>
+      <c r="F26" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="20" t="s">
+      <c r="G26" s="21"/>
+      <c r="H26" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I26" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="34" t="s">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C27" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D27" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E27" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="33" t="s">
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="35"/>
-      <c r="C27" s="12" t="s">
+    <row r="28" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="35"/>
+      <c r="C28" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D28" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="18" t="s">
+      <c r="F28" s="15"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="29" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E29" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="13" t="s">
+      <c r="F29" s="2"/>
+      <c r="G29" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="16" t="s">
+      <c r="H29" s="2"/>
+      <c r="I29" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="26"/>
-      <c r="C29" s="11" t="s">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="32"/>
+      <c r="C30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D30" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B30" s="26"/>
-      <c r="C30" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="26"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="32"/>
       <c r="C31" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="14"/>
       <c r="I31" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="26"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="32"/>
       <c r="C32" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="14"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="32"/>
+      <c r="C33" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="14" t="s">
+      <c r="G33" s="5"/>
+      <c r="H33" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="17" t="s">
+      <c r="I33" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="26"/>
-      <c r="C33" s="19" t="s">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="32"/>
+      <c r="C34" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D34" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="20" t="s">
+      <c r="E34" s="21"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="22" t="s">
+      <c r="I34" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="27"/>
-      <c r="C34" s="12" t="s">
+    <row r="35" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="33"/>
+      <c r="C35" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D35" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="18" t="s">
+      <c r="E35" s="8"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="29" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D36" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="26"/>
-      <c r="C36" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>51</v>
       </c>
       <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="5"/>
       <c r="I36" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B37" s="26"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="32"/>
       <c r="C37" s="11" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="14"/>
       <c r="I37" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="32"/>
+      <c r="C38" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="27"/>
-      <c r="C38" s="12" t="s">
+    <row r="39" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="33"/>
+      <c r="C39" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D39" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="15" t="s">
+      <c r="E39" s="8"/>
+      <c r="F39" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="15" t="s">
+      <c r="G39" s="8"/>
+      <c r="H39" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I38" s="18" t="s">
+      <c r="I39" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="29" t="s">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C40" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D40" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E40" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="32"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="33" t="s">
+      <c r="F40" s="29"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="30" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="27"/>
-      <c r="C40" s="12" t="s">
+    <row r="41" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="33"/>
+      <c r="C41" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D41" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="18" t="s">
+      <c r="E41" s="15"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="18" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B10:B21"/>
     <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="B36:B39"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
